--- a/Info/VM.xlsx
+++ b/Info/VM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243978FE-FD9F-4090-81CA-01399C0B7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F456728E-4FA2-4FC8-B4DD-C1D83D5BEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Операции(типизация)" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Info/VM.xlsx
+++ b/Info/VM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F456728E-4FA2-4FC8-B4DD-C1D83D5BEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B71DA4-DDE3-47D5-9EEB-9B91E88527C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Операции(типизация)" sheetId="1" r:id="rId1"/>
@@ -25,77 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Притачать</t>
-  </si>
-  <si>
-    <t>Стачать</t>
-  </si>
-  <si>
-    <t>Сложить</t>
-  </si>
-  <si>
-    <t>Втачать</t>
-  </si>
-  <si>
-    <t>Отстрочить</t>
-  </si>
-  <si>
-    <t>Настрочить</t>
-  </si>
-  <si>
-    <t>Заготовить</t>
-  </si>
-  <si>
-    <t>Закрепить</t>
-  </si>
-  <si>
-    <t>Операции (оборудование)</t>
-  </si>
-  <si>
-    <t>Обрезка</t>
-  </si>
-  <si>
-    <t>Загнуть</t>
-  </si>
-  <si>
-    <t>Операции (ручные-R)</t>
-  </si>
-  <si>
-    <t>Чистка</t>
-  </si>
-  <si>
-    <t>Обметать</t>
-  </si>
-  <si>
-    <t>Драпировка</t>
-  </si>
-  <si>
-    <t>Вставить (каркасы)</t>
-  </si>
-  <si>
-    <t>Прикрепить</t>
-  </si>
-  <si>
-    <t>Нарезать</t>
-  </si>
-  <si>
-    <t>Сдублировать</t>
-  </si>
-  <si>
-    <t>Оконтовать</t>
-  </si>
-  <si>
-    <t>Порвать дублир</t>
-  </si>
-  <si>
-    <t>Проложить</t>
-  </si>
-  <si>
-    <t>Расстрочить</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,20 +76,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{763105FC-B451-4539-BC09-CD5004986458}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{763105FC-B451-4539-BC09-CD5004986458}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
-    <sortCondition ref="A1:A18"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1799006F-C0BB-48A4-B97B-F03075ACB888}" name="Операции (оборудование)"/>
-    <tableColumn id="2" xr3:uid="{D7289534-05EE-4D70-9F16-18EBF3545A4C}" name="Операции (ручные-R)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,127 +341,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>